--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_08.11.2024_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731699941.8530254</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731699942.6931143</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699941.8530254.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699942.6931143.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2755.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2754.25</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.25</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731699943.7929704</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731699944.5689588</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699943.7929704.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699944.5689588.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2753.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2754.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2999999999997272</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731699945.1775594</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731699947.370636</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699945.1775594.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699947.370636.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2749.6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2740.25</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-9.349999999999909</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731699947.510328</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731699947.662077</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699947.510328.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699947.662077.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>2743.65</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2738.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>5.150000000000091</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731699948.2237747</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731699948.4950743</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699948.2237747.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699948.4950743.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2736.1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2741.7</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>5.599999999999909</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731699949.0887349</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731699950.1519482</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699949.0887349.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699950.1519482.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>2746.65</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2743.9</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2.75</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731699951.0538664</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731699951.9843402</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699951.0538664.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699951.9843402.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>2742.65</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2744.75</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.099999999999909</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731699953.0733008</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731699954.9537094</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699953.0733008.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699954.9537094.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>2745.7</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2746.85</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.150000000000091</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731699957.3990922</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731699958.2843497</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699957.3990922.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699958.2843497.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>2753</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2749.6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731699959.8772478</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731699960.201368</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699959.8772478.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731699960.201368.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>2748.25</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2751.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.150000000000091</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1059,44 +1135,50 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731699960.598917</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731699960.598917.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731699960.598917.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>2746.15</v>
       </c>
-      <c r="J13" t="n">
-        <v>2746.15</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.700000000000273</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1239,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.19999999999982</v>
+        <v>11.49999999999955</v>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.199999999999984</v>
+        <v>1.045454545454504</v>
       </c>
       <c r="E2" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="F2" t="n">
         <v>0.04</v>
